--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797551E-967F-40D9-976F-B0A46A0D7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD58CB17-B7C5-47D6-94A9-CF085BC1FDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="600" windowWidth="11004" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese_simple" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -919,6 +919,9 @@
   </si>
   <si>
     <t>giáp</t>
+  </si>
+  <si>
+    <t>Syllable_Zh</t>
   </si>
 </sst>
 </file>
@@ -1298,18 +1301,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,632 +1326,689 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>134</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>139</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>138</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>142</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>146</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>151</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>152</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>153</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>154</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>156</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>157</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>160</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>162</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>164</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>166</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>167</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>168</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>170</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>172</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>168</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>174</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>175</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>176</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>179</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>180</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>181</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>183</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>185</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>186</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>188</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1">
+    <row r="15" spans="1:12" s="6" customFormat="1">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>188</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>193</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>194</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>195</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>196</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>198</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>199</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>200</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>201</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>203</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>204</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>205</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>203</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>204</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>205</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="17.399999999999999">
+    <row r="20" spans="2:12" ht="17.399999999999999">
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>211</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>208</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>212</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>214</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>215</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>216</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>188</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>218</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>219</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>220</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>221</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>222</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>225</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>226</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>227</v>
-      </c>
-      <c r="J23" t="s">
-        <v>188</v>
       </c>
       <c r="K23" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>230</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>229</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>231</v>
-      </c>
-      <c r="I24" t="s">
-        <v>188</v>
       </c>
       <c r="J24" t="s">
         <v>188</v>
@@ -1953,333 +2016,336 @@
       <c r="K24" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="25" spans="2:11">
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>232</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>233</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>234</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>235</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>237</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>238</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>239</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>240</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>133</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>243</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>242</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>245</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>242</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>244</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>242</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>125</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>246</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>248</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>249</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>250</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>251</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>252</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>254</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>255</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>256</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>257</v>
-      </c>
-      <c r="J29" t="s">
-        <v>188</v>
       </c>
       <c r="K29" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="L29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>258</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>259</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>260</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>261</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>262</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>263</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>264</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>265</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>266</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>267</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>270</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>269</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>271</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>273</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>188</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>275</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>276</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>277</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>278</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>279</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>281</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>283</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>284</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>282</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>285</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="6" customFormat="1">
+    <row r="35" spans="2:12" s="6" customFormat="1">
       <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="L35" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:12">
       <c r="B38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:12">
       <c r="B45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:12">
       <c r="B46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:12">
       <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
         <v>49</v>
       </c>
